--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831C4F7-E34F-4551-AE62-280135BB1C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD5549A-D11B-40E7-8932-F6CC6948427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="375" windowWidth="24375" windowHeight="15225" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="33180" yWindow="4755" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StageIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Game/Asset/UI/Sprite/Icon/S_icon_24.S_icon_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array&lt;int32&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset&lt;UWorld&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Game/Map/Stage/Level_Stage0001.Level_Stage0001</t>
   </si>
   <si>
@@ -192,11 +180,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asset&lt;UTexture2D&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexture2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UWorld&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;int32&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +618,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,28 +633,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -665,22 +665,22 @@
         <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -691,16 +691,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>101</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD5549A-D11B-40E7-8932-F6CC6948427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD19C8-6578-4801-A0A7-2E15629DA667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="4755" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
-    <sheet name="Wave" sheetId="3" r:id="rId2"/>
+    <sheet name="!Wave" sheetId="3" r:id="rId2"/>
     <sheet name="StageDesc" sheetId="2" r:id="rId3"/>
     <sheet name="WaveDesc" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>Array&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;int32&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,10 +672,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>42</v>
@@ -719,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD19C8-6578-4801-A0A7-2E15629DA667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C221CD-60FF-4763-BF0E-385DB40E87BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="6015" yWindow="3600" windowWidth="28800" windowHeight="15345" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,9 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/Map/Stage/Level_Stage0001.Level_Stage0001</t>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +198,17 @@
   </si>
   <si>
     <t>TArray&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_24.S_icon_24</t>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,13 +645,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -658,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -669,22 +677,22 @@
         <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -710,7 +718,33 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -723,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C221CD-60FF-4763-BF0E-385DB40E87BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7BF158-36CE-49B9-AEB3-164D537AB90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="3600" windowWidth="28800" windowHeight="15345" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,26 @@
   </si>
   <si>
     <t>/Game/Map/Stage/Level_Stage0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Map/Stage/Level_Stage1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -745,6 +765,136 @@
       </c>
       <c r="H4" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -757,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,7 +1135,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7BF158-36CE-49B9-AEB3-164D537AB90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF89D7-372D-4595-A403-D1E81BD30A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="57480" yWindow="-1695" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,75 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
-  <si>
-    <t>Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;키값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;INDEX 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward_EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_KIND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;스테이지 Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;보스 Kind (monster 테이블 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;보상 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;보상 아이템1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;보상 아이템2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;보상 아이템3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>;레벨 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,21 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max_UsePoint</t>
-  </si>
-  <si>
     <t>;최초로 사용 가능한 배치포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WAVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;해당 스테이지의 wave 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wave_Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +142,26 @@
   </si>
   <si>
     <t>/Game/Map/Stage/Level_Stage1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;스테이지 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;웨이브 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;스테이지 아이콘 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;보상 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +583,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,54 +598,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -723,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>101</v>
@@ -738,7 +671,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -764,7 +697,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -775,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>101</v>
@@ -790,7 +723,7 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -801,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>101</v>
@@ -816,7 +749,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -827,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>101</v>
@@ -842,7 +775,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>101</v>
@@ -868,7 +801,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -879,7 +812,7 @@
         <v>1001</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>101</v>
@@ -894,7 +827,7 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -907,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,30 +853,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1024,10 +957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1038,90 +971,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1028,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,34 +1038,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF89D7-372D-4595-A403-D1E81BD30A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292D3A4B-1700-4516-B45A-29597F6DDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1695" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>;레벨 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,55 @@
   </si>
   <si>
     <t>;보상 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;맵툴에서 부여한 스플라인 포지션 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 몬스터가 나오는데 걸리는 시간
+* 백분율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">; 스테이지에 적용될 때 데이터 검증용 스테이지 ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* !Stage / Level 값</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 1 = 첫번째 스테이지
+2 = 반복 스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +234,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +263,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,13 +293,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,9 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -265,6 +337,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,12 +670,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="17.5" customWidth="1"/>
@@ -600,7 +687,7 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -623,33 +710,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3">
@@ -675,7 +762,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4">
@@ -701,7 +788,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5">
@@ -727,7 +814,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6">
@@ -753,7 +840,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7">
@@ -779,7 +866,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8">
@@ -805,7 +892,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9">
@@ -838,7 +925,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -846,40 +933,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -890,10 +1002,19 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -904,10 +1025,22 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -918,10 +1051,22 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+      <c r="H5">
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -932,26 +1077,32 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1005</v>
-      </c>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -959,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,50 +1121,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1025,47 +1176,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E65939-9C01-46E8-9ACE-B15503096FB8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" customWidth="1"/>
+    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292D3A4B-1700-4516-B45A-29597F6DDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DACBF5-6765-4A01-9A24-4A826400ADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
-    <sheet name="!Wave" sheetId="3" r:id="rId2"/>
-    <sheet name="StageDesc" sheetId="2" r:id="rId3"/>
+    <sheet name="StageDesc" sheetId="2" r:id="rId2"/>
+    <sheet name="!Wave" sheetId="3" r:id="rId3"/>
     <sheet name="WaveDesc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>;레벨 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>; 해당 스테이지의 wave 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>; 한 스테이지에 발생하는 전체 wave 의 Group 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,24 +157,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StageLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DelayTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;맵툴에서 부여한 스플라인 포지션 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; 몬스터가 나오는데 걸리는 시간
-* 백분율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,12 +184,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>; 1 = 첫번째 스테이지
 2 = 반복 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 웨이브 시작 후 몬스터가 나오는데 걸리는 시간
+* 백분율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,12 +240,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,9 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -670,7 +641,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,54 +656,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -743,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>101</v>
@@ -758,7 +729,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -769,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -784,7 +755,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -795,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>101</v>
@@ -810,7 +781,7 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -821,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>101</v>
@@ -836,7 +807,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>101</v>
@@ -862,7 +833,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -873,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>101</v>
@@ -888,7 +859,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -899,7 +870,7 @@
         <v>1001</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>101</v>
@@ -914,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -924,74 +895,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1005,16 +1031,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1028,19 +1051,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>1500</v>
-      </c>
-      <c r="H4">
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1054,19 +1071,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>1500</v>
-      </c>
-      <c r="H5">
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1080,24 +1091,18 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>1500</v>
-      </c>
-      <c r="H6">
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1106,151 +1111,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E65939-9C01-46E8-9ACE-B15503096FB8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E65939-9C01-46E8-9ACE-B15503096FB8}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>41</v>
+      <c r="B6" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DACBF5-6765-4A01-9A24-4A826400ADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4EC0A-02AE-4BE7-9646-4B9E3725AB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,14 +967,15 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4EC0A-02AE-4BE7-9646-4B9E3725AB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75372EF-34A3-4986-A6A4-C173D0CCA911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>;레벨 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +203,25 @@
     <t>; 웨이브 시작 후 몬스터가 나오는데 걸리는 시간
 * 백분율</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;3</t>
+  </si>
+  <si>
+    <t>;4</t>
+  </si>
+  <si>
+    <t>;5</t>
+  </si>
+  <si>
+    <t>;6</t>
+  </si>
+  <si>
+    <t>;7</t>
   </si>
 </sst>
 </file>
@@ -284,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,9 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -733,8 +760,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2</v>
+      <c r="A4" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -759,8 +786,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>3</v>
+      <c r="A5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -785,8 +812,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>4</v>
+      <c r="A6" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -811,8 +838,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>5</v>
+      <c r="A7" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -837,8 +864,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6</v>
+      <c r="A8" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -863,8 +890,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>7</v>
+      <c r="A9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1001</v>
@@ -899,7 +926,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,10 +991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -991,10 +1018,10 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1020,7 +1047,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1001</v>
+        <v>11001</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1029,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1040,7 +1067,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1002</v>
+        <v>11002</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1049,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1060,7 +1087,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1003</v>
+        <v>11003</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1069,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1080,30 +1107,63 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1004</v>
+        <v>21001</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2000001</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>21002</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2000002</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21003</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2000003</v>
+      </c>
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="F8">
+        <v>2003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,7 +1191,7 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1139,7 +1199,7 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1147,7 +1207,7 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1155,7 +1215,7 @@
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1163,7 +1223,7 @@
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1171,7 +1231,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75372EF-34A3-4986-A6A4-C173D0CCA911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D67B07-6687-4392-A52B-C348284F51F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="21000" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>;레벨 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,34 +117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_24.S_icon_24</t>
-  </si>
-  <si>
     <t>/Game/Map/Stage/Level_Stage0002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/Game/Map/Stage/Level_Stage0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Map/Stage/Level_Stage0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Map/Stage/Level_Stage0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Map/Stage/Level_Stage0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Map/Stage/Level_Stage0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Map/Stage/Level_Stage1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,23 +182,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;3</t>
-  </si>
-  <si>
-    <t>;4</t>
-  </si>
-  <si>
-    <t>;5</t>
-  </si>
-  <si>
-    <t>;6</t>
-  </si>
-  <si>
-    <t>;7</t>
+    <t>;스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -254,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -308,13 +276,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,15 +742,15 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>37</v>
+      <c r="A4" s="8">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1000002</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -782,137 +768,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5">
-        <v>101</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>101</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>101</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>101</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>101</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,10 +847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,14 +859,15 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1019,13 +876,16 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +904,9 @@
       <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11001</v>
       </c>
@@ -1064,8 +925,11 @@
       <c r="F3">
         <v>1001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11002</v>
       </c>
@@ -1079,13 +943,16 @@
         <v>1000001</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11003</v>
       </c>
@@ -1099,13 +966,16 @@
         <v>1000001</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F5">
         <v>1003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>21001</v>
       </c>
@@ -1116,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1124,8 +994,11 @@
       <c r="F6">
         <v>2001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21002</v>
       </c>
@@ -1136,16 +1009,19 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2000002</v>
+        <v>1000001</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F7">
         <v>2002</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21003</v>
       </c>
@@ -1156,13 +1032,154 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2000003</v>
+        <v>1000001</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F8">
         <v>2003</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12001</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1000002</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3001</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12002</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1000002</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10">
+        <v>3002</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12003</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1000002</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11">
+        <v>3003</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>21001</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1000002</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4001</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>21002</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1000002</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13">
+        <v>4002</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>21003</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1000002</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>4003</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1214,10 @@
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,15 +1230,15 @@
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
@@ -1232,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D67B07-6687-4392-A52B-C348284F51F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B05512-FAE5-4746-9ECB-11B43226770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="21000" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -341,7 +341,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -850,7 +861,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D14"/>
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1126,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>21001</v>
+        <v>22001</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1138,7 +1149,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>21002</v>
+        <v>22002</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1161,7 +1172,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>21003</v>
+        <v>22003</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1184,6 +1195,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/XLSX/StageTable.xlsx
+++ b/XLSX/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B05512-FAE5-4746-9ECB-11B43226770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD954B29-EB8B-477E-8C28-4953CF1F4151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="21000" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="35850" yWindow="-1365" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1129,7 @@
         <v>22001</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1152,7 +1152,7 @@
         <v>22002</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>22003</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>2</v>
